--- a/data-raw/cmam/time_to_travel.xlsx
+++ b/data-raw/cmam/time_to_travel.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697B654-7F3E-9943-91DC-942868293E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DB25A-04CC-F243-836B-4B11C5943004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="460" windowWidth="28840" windowHeight="28040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27060" yWindow="460" windowWidth="23780" windowHeight="28040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telkuk" sheetId="3" r:id="rId1"/>
     <sheet name="Kassala" sheetId="6" r:id="rId2"/>
     <sheet name="River Altbara" sheetId="7" r:id="rId3"/>
     <sheet name="Halfa" sheetId="8" r:id="rId4"/>
+    <sheet name="El Fasher" sheetId="9" r:id="rId5"/>
+    <sheet name="Tawila" sheetId="10" r:id="rId6"/>
+    <sheet name="Kutum" sheetId="11" r:id="rId7"/>
+    <sheet name="Kalamendo" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="54">
   <si>
     <t>Telkuk</t>
   </si>
@@ -148,6 +152,57 @@
   </si>
   <si>
     <t>8 - Arab</t>
+  </si>
+  <si>
+    <t>Alnhdua</t>
+  </si>
+  <si>
+    <t>sid El shohada</t>
+  </si>
+  <si>
+    <t>Abu Shock camp</t>
+  </si>
+  <si>
+    <t>Abu digeise</t>
+  </si>
+  <si>
+    <t>Golo</t>
+  </si>
+  <si>
+    <t>North Darfur</t>
+  </si>
+  <si>
+    <t>El Fasher</t>
+  </si>
+  <si>
+    <t>Tawila</t>
+  </si>
+  <si>
+    <t>Rownda A IDP camp</t>
+  </si>
+  <si>
+    <t>Tawila Hospital</t>
+  </si>
+  <si>
+    <t>Tungor</t>
+  </si>
+  <si>
+    <t>Tardonat</t>
+  </si>
+  <si>
+    <t>Dalliy</t>
+  </si>
+  <si>
+    <t>Kutum</t>
+  </si>
+  <si>
+    <t>Kassab camp</t>
+  </si>
+  <si>
+    <t>Amo</t>
+  </si>
+  <si>
+    <t>Damrat</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -2582,4 +2637,1699 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E476211-31D7-124D-8BFA-D74743E7C92A}">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>135</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>266</v>
+      </c>
+      <c r="F6">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>592</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C8F44F-162F-EE4F-A5D8-65BC02D64456}">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>68</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93672B9-077D-EE49-9247-E24F7252F71F}">
+  <dimension ref="A2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCBA8E-804A-484A-85AC-E2543EF14D2A}">
+  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/cmam/time_to_travel.xlsx
+++ b/data-raw/cmam/time_to_travel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DB25A-04CC-F243-836B-4B11C5943004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B128CE-BCEA-DC49-952F-E91366168E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27060" yWindow="460" windowWidth="23780" windowHeight="28040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="23780" windowHeight="28040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telkuk" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="59">
   <si>
     <t>Telkuk</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t>Damrat</t>
+  </si>
+  <si>
+    <t>Kalamendo</t>
+  </si>
+  <si>
+    <t>Abudeleik</t>
+  </si>
+  <si>
+    <t>Arida</t>
+  </si>
+  <si>
+    <t>Wada</t>
+  </si>
+  <si>
+    <t>Eid albida</t>
   </si>
 </sst>
 </file>
@@ -3621,7 +3636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93672B9-077D-EE49-9247-E24F7252F71F}">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -4021,15 +4036,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCBA8E-804A-484A-85AC-E2543EF14D2A}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -4070,42 +4085,42 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
         <v>6</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -4128,28 +4143,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4157,42 +4172,42 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -4207,36 +4222,36 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4244,48 +4259,48 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4297,27 +4312,27 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4326,6 +4341,93 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/cmam/time_to_travel.xlsx
+++ b/data-raw/cmam/time_to_travel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B128CE-BCEA-DC49-952F-E91366168E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F0F5FF-5329-E949-BBE6-F5528A40F92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="23780" windowHeight="28040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15840" yWindow="460" windowWidth="12960" windowHeight="17540" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telkuk" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="Tawila" sheetId="10" r:id="rId6"/>
     <sheet name="Kutum" sheetId="11" r:id="rId7"/>
     <sheet name="Kalamendo" sheetId="12" r:id="rId8"/>
+    <sheet name="Medani Alkupra" sheetId="13" r:id="rId9"/>
+    <sheet name="Sharg Algazira" sheetId="14" r:id="rId10"/>
+    <sheet name="South Gazira" sheetId="15" r:id="rId11"/>
+    <sheet name="Alkamlin" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="78">
   <si>
     <t>Telkuk</t>
   </si>
@@ -218,6 +222,63 @@
   </si>
   <si>
     <t>Eid albida</t>
+  </si>
+  <si>
+    <t>Algazira</t>
+  </si>
+  <si>
+    <t>Medani Alkupra</t>
+  </si>
+  <si>
+    <t>Abu Sunun</t>
+  </si>
+  <si>
+    <t>Arkauet</t>
+  </si>
+  <si>
+    <t>Banat</t>
+  </si>
+  <si>
+    <t>Alkareba</t>
+  </si>
+  <si>
+    <t>Sharg Algazira</t>
+  </si>
+  <si>
+    <t>Rufaa</t>
+  </si>
+  <si>
+    <t>Alganed</t>
+  </si>
+  <si>
+    <t>Alhelalia</t>
+  </si>
+  <si>
+    <t>Tambool</t>
+  </si>
+  <si>
+    <t>South Gazira</t>
+  </si>
+  <si>
+    <t>Wad Alhadad</t>
+  </si>
+  <si>
+    <t>Alhoush</t>
+  </si>
+  <si>
+    <t>Almadina Arab</t>
+  </si>
+  <si>
+    <t>Barakat</t>
+  </si>
+  <si>
+    <t>Alkamlin</t>
+  </si>
+  <si>
+    <t>Alsiraiha</t>
+  </si>
+  <si>
+    <t>Mealig</t>
   </si>
 </sst>
 </file>
@@ -1437,6 +1498,1090 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F964FFA5-7276-4442-B62E-5D4AAEDBD137}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D11FFD-11AD-A441-9D47-37E0DE452E3D}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4879C8D-9CA2-CB43-8ED4-8696F8E1E3F7}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
@@ -2341,10 +3486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2359,33 +3504,62 @@
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2398,17 +3572,17 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2428,10 +3602,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2453,14 +3627,14 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2486,10 +3660,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2515,10 +3689,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2541,13 +3715,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2573,10 +3747,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2602,7 +3776,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2617,35 +3791,6 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
         <v>0</v>
       </c>
     </row>
@@ -2656,1390 +3801,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E476211-31D7-124D-8BFA-D74743E7C92A}">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>135</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>266</v>
-      </c>
-      <c r="F6">
-        <v>57</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>592</v>
-      </c>
-      <c r="F9">
-        <v>82</v>
-      </c>
-      <c r="G9">
-        <v>101</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>79</v>
-      </c>
-      <c r="F12">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>25</v>
-      </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>79</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C8F44F-162F-EE4F-A5D8-65BC02D64456}">
-  <dimension ref="A2:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>60</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>68</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>9</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93672B9-077D-EE49-9247-E24F7252F71F}">
-  <dimension ref="A2:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>90</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>14</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCBA8E-804A-484A-85AC-E2543EF14D2A}">
-  <dimension ref="A2:I14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4054,33 +3819,62 @@
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>135</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4088,28 +3882,28 @@
         <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4117,13 +3911,13 @@
         <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4146,25 +3940,25 @@
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4175,28 +3969,28 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4204,13 +3998,13 @@
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4222,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4233,25 +4027,25 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>592</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4262,28 +4056,28 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4291,16 +4085,16 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4312,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4320,25 +4114,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4349,25 +4143,25 @@
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4378,16 +4172,16 @@
         <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4407,27 +4201,1780 @@
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C8F44F-162F-EE4F-A5D8-65BC02D64456}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93672B9-077D-EE49-9247-E24F7252F71F}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCBA8E-804A-484A-85AC-E2543EF14D2A}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A723F10-14B3-8340-A135-947772708467}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>115</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/cmam/time_to_travel.xlsx
+++ b/data-raw/cmam/time_to_travel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F0F5FF-5329-E949-BBE6-F5528A40F92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B7AE2-6105-0E4E-B68C-0E06DD943AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="460" windowWidth="12960" windowHeight="17540" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12660" yWindow="460" windowWidth="12960" windowHeight="17540" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telkuk" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="80">
   <si>
     <t>Telkuk</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Mealig</t>
+  </si>
+  <si>
+    <t>Elsaha Elmadrasia</t>
+  </si>
+  <si>
+    <t>Giad</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2303,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2512,9 +2518,26 @@
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" t="s">
         <v>10</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2524,9 +2547,26 @@
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D9" t="s">
         <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2536,9 +2576,26 @@
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" t="s">
         <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2548,9 +2605,26 @@
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D11" t="s">
         <v>10</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2560,9 +2634,26 @@
       <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D12" t="s">
         <v>18</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2572,9 +2663,26 @@
       <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D13" t="s">
         <v>32</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
